--- a/financial_models/Portfolio_Monitor.xlsx
+++ b/financial_models/Portfolio_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B651D-786E-C247-A60E-168806720FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EE833F-CEE3-5243-9545-8841C2C582F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A2:O400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
